--- a/inst/doc/xlsx/LOBSTAHS_addl_oxy_ranges.xlsx
+++ b/inst/doc/xlsx/LOBSTAHS_addl_oxy_ranges.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcollins/Code/LOBSTAHS/inst/doc/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Additional oxygen atoms" sheetId="1" r:id="rId1"/>
@@ -52,9 +57,6 @@
     <t>Latest versions of all pipeline scripts and required files available at https://github.com/vanmooylipidomics/LOBSTAHS, or upon demand from Dr. Fredricks</t>
   </si>
   <si>
-    <t>See Collins, J.R., B.R. Edwards, H.F. Fredricks, and B.A.S. Van Mooy, 2015</t>
-  </si>
-  <si>
     <t>To generate a .csv version of the worksheet for use with LOBSTAHS:</t>
   </si>
   <si>
@@ -92,6 +94,9 @@
   </si>
   <si>
     <t>Additional oxygen atoms to be considered by lipid class</t>
+  </si>
+  <si>
+    <t>See Collins, J.R., B.R. Edwards, H.F. Fredricks, and B.A.S. Van Mooy, 2016, "LOBSTAHS: A Novel Lipidomics Strategy for Semi-Untargeted Discovery and Identification of Oxidative Stress Biomarkers"</t>
   </si>
 </sst>
 </file>
@@ -201,6 +206,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -532,14 +542,14 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -565,7 +575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -594,11 +604,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -607,99 +612,94 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>42343</v>
       </c>
       <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>42344</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/inst/doc/xlsx/LOBSTAHS_addl_oxy_ranges.xlsx
+++ b/inst/doc/xlsx/LOBSTAHS_addl_oxy_ranges.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>IP_DAG_min</t>
   </si>
@@ -97,6 +100,15 @@
   </si>
   <si>
     <t>See Collins, J.R., B.R. Edwards, H.F. Fredricks, and B.A.S. Van Mooy, 2016, "LOBSTAHS: A Novel Lipidomics Strategy for Semi-Untargeted Discovery and Identification of Oxidative Stress Biomarkers"</t>
+  </si>
+  <si>
+    <t>IP_MAG_min</t>
+  </si>
+  <si>
+    <t>IP_MAG_max</t>
+  </si>
+  <si>
+    <t>Added columns for IP_MAG_min and IP_MAG_max for lyso species</t>
   </si>
 </sst>
 </file>
@@ -536,20 +548,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -557,25 +569,31 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -598,6 +616,12 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>4</v>
       </c>
     </row>
@@ -609,10 +633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -698,6 +722,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>42607</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
